--- a/data/trans_orig/P21D3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D3_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>39055</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28128</v>
+        <v>27475</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51790</v>
+        <v>50945</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2531311724014025</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1823109725150337</v>
+        <v>0.17807805592331</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3356735598903008</v>
+        <v>0.3301969160492226</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -762,19 +762,19 @@
         <v>18869</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12088</v>
+        <v>12898</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28563</v>
+        <v>29033</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1360308881554692</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08714565873838659</v>
+        <v>0.09298480937988292</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2059197076571841</v>
+        <v>0.2093065343895012</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>66</v>
@@ -783,19 +783,19 @@
         <v>57924</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>45005</v>
+        <v>44263</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>71629</v>
+        <v>73843</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1976940988026977</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1536029174596596</v>
+        <v>0.1510718608807586</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2444723769794711</v>
+        <v>0.2520276434413118</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>115232</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>102497</v>
+        <v>103342</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>126159</v>
+        <v>126812</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7468688275985974</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6643264401096991</v>
+        <v>0.6698030839507775</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8176890274849663</v>
+        <v>0.8219219440766901</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>204</v>
@@ -833,19 +833,19 @@
         <v>119840</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>110146</v>
+        <v>109676</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>126621</v>
+        <v>125811</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8639691118445308</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.794080292342816</v>
+        <v>0.7906934656104987</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9128543412616135</v>
+        <v>0.907015190620117</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>320</v>
@@ -854,19 +854,19 @@
         <v>235072</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>221367</v>
+        <v>219153</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>247991</v>
+        <v>248733</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8023059011973023</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7555276230205288</v>
+        <v>0.7479723565586881</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8463970825403405</v>
+        <v>0.8489281391192415</v>
       </c>
     </row>
     <row r="6">
@@ -1052,19 +1052,19 @@
         <v>49915</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>35218</v>
+        <v>36384</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>68071</v>
+        <v>68558</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2251120923666456</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1588291382668349</v>
+        <v>0.1640893803590641</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3069969085307171</v>
+        <v>0.3091919727934638</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>58</v>
@@ -1073,19 +1073,19 @@
         <v>51002</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>39562</v>
+        <v>40215</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>64807</v>
+        <v>66247</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2018165956635854</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1565467379844052</v>
+        <v>0.159129261872209</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2564421933571562</v>
+        <v>0.2621417933964304</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>90</v>
@@ -1094,19 +1094,19 @@
         <v>100917</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>82284</v>
+        <v>82749</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>125833</v>
+        <v>124536</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2127036779079029</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1734318503919749</v>
+        <v>0.174410567546378</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2652194598014106</v>
+        <v>0.2624854341994371</v>
       </c>
     </row>
     <row r="10">
@@ -1123,19 +1123,19 @@
         <v>169787</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>151268</v>
+        <v>151273</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>184527</v>
+        <v>183754</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7657287332881837</v>
+        <v>0.7657287332881838</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6822090253779169</v>
+        <v>0.6822315020142149</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8322060002327389</v>
+        <v>0.8287231723961401</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>257</v>
@@ -1144,19 +1144,19 @@
         <v>194161</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>180765</v>
+        <v>179046</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>206295</v>
+        <v>205283</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7682970967267347</v>
+        <v>0.7682970967267349</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7152874514427925</v>
+        <v>0.708486693064949</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8163096605016666</v>
+        <v>0.8123089140940974</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>383</v>
@@ -1165,19 +1165,19 @@
         <v>363948</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>339446</v>
+        <v>340453</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>382562</v>
+        <v>381927</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7670967795862493</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7154549173643667</v>
+        <v>0.717577986627796</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8063316213978888</v>
+        <v>0.8049919790540887</v>
       </c>
     </row>
     <row r="11">
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7271</v>
+        <v>7060</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.009159174345170742</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03278959507687595</v>
+        <v>0.03183934702357154</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -1215,19 +1215,19 @@
         <v>6804</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3370</v>
+        <v>3363</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12008</v>
+        <v>11976</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02692190421932086</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0133365532295075</v>
+        <v>0.01330740774377468</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04751486694353611</v>
+        <v>0.04738862949563998</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -1236,19 +1236,19 @@
         <v>8834</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4312</v>
+        <v>4755</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14149</v>
+        <v>15724</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01862054436902567</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.009089034879163162</v>
+        <v>0.01002204637615605</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02982152571493564</v>
+        <v>0.03314162741706168</v>
       </c>
     </row>
     <row r="12">
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>3819</v>
+        <v>3831</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.002964403390358988</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01510989252930557</v>
+        <v>0.01515981315044787</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>4300</v>
+        <v>4235</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.001578998136822053</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.009063610511317934</v>
+        <v>0.008926144215393429</v>
       </c>
     </row>
     <row r="13">
@@ -1403,19 +1403,19 @@
         <v>23715</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16228</v>
+        <v>16429</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>31761</v>
+        <v>32420</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2548487831092641</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1743903414256015</v>
+        <v>0.1765571761230864</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3413139682077</v>
+        <v>0.3483961921068615</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>33</v>
@@ -1424,19 +1424,19 @@
         <v>24587</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17599</v>
+        <v>17391</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33367</v>
+        <v>32639</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1680086221563238</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1202573812170177</v>
+        <v>0.1188378810547755</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2280056509703713</v>
+        <v>0.2230355851515897</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>60</v>
@@ -1445,19 +1445,19 @@
         <v>48301</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>37406</v>
+        <v>38098</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>60114</v>
+        <v>59671</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2017635109983401</v>
+        <v>0.2017635109983402</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1562509559625702</v>
+        <v>0.159140934598083</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2511060535592809</v>
+        <v>0.2492581027724667</v>
       </c>
     </row>
     <row r="15">
@@ -1474,19 +1474,19 @@
         <v>69339</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>61293</v>
+        <v>60634</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>76826</v>
+        <v>76625</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.7451512168907359</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6586860317922998</v>
+        <v>0.6516038078931384</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8256096585743984</v>
+        <v>0.8234428238769135</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>189</v>
@@ -1495,19 +1495,19 @@
         <v>121194</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>111966</v>
+        <v>112990</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>128043</v>
+        <v>128150</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.8281552051219611</v>
+        <v>0.8281552051219613</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.7650996304845988</v>
+        <v>0.7720951541795091</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8749545455451438</v>
+        <v>0.8756903782803125</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>275</v>
@@ -1516,19 +1516,19 @@
         <v>190533</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>178699</v>
+        <v>179094</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>201343</v>
+        <v>200881</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.7958914418418889</v>
+        <v>0.795891441841889</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.7464561513724657</v>
+        <v>0.7481063879983341</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.8410437403935725</v>
+        <v>0.8391169942079792</v>
       </c>
     </row>
     <row r="16">
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2890</v>
+        <v>2859</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.003836172721714983</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01974818510074631</v>
+        <v>0.01953398895364316</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3466</v>
+        <v>2792</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.002345047159770939</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01448007134547663</v>
+        <v>0.01166146676147606</v>
       </c>
     </row>
     <row r="18">
@@ -1730,19 +1730,19 @@
         <v>68048</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>50930</v>
+        <v>51007</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>87002</v>
+        <v>85709</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3900500926653401</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2919265510874545</v>
+        <v>0.2923706672811454</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4986929213796303</v>
+        <v>0.4912791578690829</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>67</v>
@@ -1751,19 +1751,19 @@
         <v>59312</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>47075</v>
+        <v>46052</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>73581</v>
+        <v>72814</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.294340875201023</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2336138304216085</v>
+        <v>0.2285343980980286</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3651525384746725</v>
+        <v>0.3613441157457092</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>106</v>
@@ -1772,19 +1772,19 @@
         <v>127360</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>107256</v>
+        <v>106441</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>152160</v>
+        <v>150348</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3387526991207352</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2852797798284072</v>
+        <v>0.283111920918048</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4047163651361593</v>
+        <v>0.3998969513647341</v>
       </c>
     </row>
     <row r="20">
@@ -1801,19 +1801,19 @@
         <v>106412</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>87458</v>
+        <v>88751</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>123530</v>
+        <v>123453</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.60994990733466</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5013070786203693</v>
+        <v>0.508720842130917</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7080734489125454</v>
+        <v>0.7076293327188546</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>209</v>
@@ -1822,19 +1822,19 @@
         <v>141032</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>126560</v>
+        <v>127094</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>152998</v>
+        <v>153681</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6998823861748578</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6280659287776124</v>
+        <v>0.6307154306435347</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.759265547072984</v>
+        <v>0.7626524615858521</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>301</v>
@@ -1843,19 +1843,19 @@
         <v>247444</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>222183</v>
+        <v>225108</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>267190</v>
+        <v>268906</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6581511347788969</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.590963126208678</v>
+        <v>0.5987432858631674</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7106733706657808</v>
+        <v>0.7152352946119205</v>
       </c>
     </row>
     <row r="21">
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4109</v>
+        <v>4275</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.005776738624119156</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02039076781183868</v>
+        <v>0.02121552162897699</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4033</v>
+        <v>4133</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.003096166100367916</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01072769935780835</v>
+        <v>0.01099189286527276</v>
       </c>
     </row>
     <row r="22">
@@ -2057,19 +2057,19 @@
         <v>29451</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20890</v>
+        <v>20947</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>38347</v>
+        <v>38969</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3488574932561748</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2474492760132946</v>
+        <v>0.2481253250165349</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4542300319236581</v>
+        <v>0.4616078569579933</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>22</v>
@@ -2078,19 +2078,19 @@
         <v>13191</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8301</v>
+        <v>8552</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>20233</v>
+        <v>20241</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1661620674629598</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1045680814156135</v>
+        <v>0.1077225034656885</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2548674017430596</v>
+        <v>0.2549768599910709</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>52</v>
@@ -2099,19 +2099,19 @@
         <v>42642</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>31669</v>
+        <v>32821</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>54098</v>
+        <v>53894</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2603177674971348</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1933308952828203</v>
+        <v>0.2003678154185205</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3302577692746816</v>
+        <v>0.3290136397052802</v>
       </c>
     </row>
     <row r="25">
@@ -2128,19 +2128,19 @@
         <v>52291</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>43112</v>
+        <v>42867</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>60493</v>
+        <v>60685</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.6194106922968448</v>
+        <v>0.6194106922968446</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5106743469281272</v>
+        <v>0.5077775791910381</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7165579071844135</v>
+        <v>0.7188426105977179</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>135</v>
@@ -2149,19 +2149,19 @@
         <v>61926</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>54265</v>
+        <v>54631</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>67812</v>
+        <v>67532</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7800746175885632</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6835691110096364</v>
+        <v>0.6881784391992584</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8542183988840331</v>
+        <v>0.8506846226169206</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>210</v>
@@ -2170,19 +2170,19 @@
         <v>114218</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>103384</v>
+        <v>102514</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>125096</v>
+        <v>124182</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.6972732869564423</v>
+        <v>0.6972732869564422</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6311395577006182</v>
+        <v>0.6258249453935412</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.763683787956673</v>
+        <v>0.7581065033802084</v>
       </c>
     </row>
     <row r="26">
@@ -2199,19 +2199,19 @@
         <v>2679</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>557</v>
+        <v>517</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8083</v>
+        <v>7971</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.03173181444698039</v>
+        <v>0.03173181444698038</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006599188472899292</v>
+        <v>0.006120565218737942</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09574895132805132</v>
+        <v>0.09441836430821213</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -2220,19 +2220,19 @@
         <v>4268</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1284</v>
+        <v>1452</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11514</v>
+        <v>12004</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.05376331494847695</v>
+        <v>0.05376331494847696</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01617879123616813</v>
+        <v>0.01829367402949951</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1450374289206252</v>
+        <v>0.1512168156519152</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>9</v>
@@ -2241,19 +2241,19 @@
         <v>6947</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3329</v>
+        <v>3236</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>14880</v>
+        <v>14712</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04240894554642308</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02032504458124516</v>
+        <v>0.01975229297766778</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09083876973789266</v>
+        <v>0.08981069597680821</v>
       </c>
     </row>
     <row r="27">
@@ -2392,19 +2392,19 @@
         <v>34072</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>24830</v>
+        <v>24795</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>43351</v>
+        <v>44607</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.268612184349281</v>
+        <v>0.2686121843492809</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1957521751157974</v>
+        <v>0.1954693179267229</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3417632214188178</v>
+        <v>0.3516658967136118</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>31</v>
@@ -2413,19 +2413,19 @@
         <v>21252</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>14611</v>
+        <v>15609</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>29836</v>
+        <v>30428</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1868854843276321</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1284853159684528</v>
+        <v>0.1372590554190659</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2623692437866955</v>
+        <v>0.2675774614696592</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>71</v>
@@ -2434,19 +2434,19 @@
         <v>55324</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>43819</v>
+        <v>44130</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>67450</v>
+        <v>67415</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.229979195993984</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1821512285509775</v>
+        <v>0.1834457000490134</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2803839062549685</v>
+        <v>0.2802402103649875</v>
       </c>
     </row>
     <row r="30">
@@ -2463,19 +2463,19 @@
         <v>92027</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>82389</v>
+        <v>81698</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>101030</v>
+        <v>101292</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.7255020183928214</v>
+        <v>0.7255020183928212</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.649520010603285</v>
+        <v>0.6440703985218106</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7964778244539367</v>
+        <v>0.7985428018294588</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>169</v>
@@ -2484,19 +2484,19 @@
         <v>92464</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>83880</v>
+        <v>83288</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>99105</v>
+        <v>98107</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.813114515672368</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7376307562133048</v>
+        <v>0.7324225385303409</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8715146840315472</v>
+        <v>0.862740944580934</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>305</v>
@@ -2505,19 +2505,19 @@
         <v>184491</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>172633</v>
+        <v>172356</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>196512</v>
+        <v>195635</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7669172790883174</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7176253599355327</v>
+        <v>0.7164742445148886</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8168888525035327</v>
+        <v>0.8132394785523109</v>
       </c>
     </row>
     <row r="31">
@@ -2584,16 +2584,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3866</v>
+        <v>3775</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.005885797257897868</v>
+        <v>0.005885797257897867</v>
       </c>
       <c r="H32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03048162611840654</v>
+        <v>0.02976216484787547</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3660</v>
+        <v>3789</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.003103524917698477</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0152133700444781</v>
+        <v>0.01575040295208859</v>
       </c>
     </row>
     <row r="33">
@@ -2719,19 +2719,19 @@
         <v>87365</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>67581</v>
+        <v>66743</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>107861</v>
+        <v>107611</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.247627438685778</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1915515659330211</v>
+        <v>0.1891784385899438</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3057212794480821</v>
+        <v>0.3050136615114246</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>62</v>
@@ -2740,19 +2740,19 @@
         <v>53778</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>41024</v>
+        <v>41854</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>67190</v>
+        <v>70913</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1509853327317387</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1151784150215068</v>
+        <v>0.1175077839328605</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1886410108293306</v>
+        <v>0.1990938939596085</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>125</v>
@@ -2761,19 +2761,19 @@
         <v>141142</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>119339</v>
+        <v>116695</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>167689</v>
+        <v>166323</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1990765523794737</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1683237916775547</v>
+        <v>0.1645940800852554</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2365193963669342</v>
+        <v>0.2345933826639233</v>
       </c>
     </row>
     <row r="35">
@@ -2790,19 +2790,19 @@
         <v>263133</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>242312</v>
+        <v>242305</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>283246</v>
+        <v>282637</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.7458263337686875</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.68681094372806</v>
+        <v>0.6867922916895849</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.8028367837425868</v>
+        <v>0.8011099088229554</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>370</v>
@@ -2811,19 +2811,19 @@
         <v>299669</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>285843</v>
+        <v>282927</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>312881</v>
+        <v>312242</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.8413443311244464</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.802526709567408</v>
+        <v>0.7943402340245881</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.8784388987738163</v>
+        <v>0.8766423403097867</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>590</v>
@@ -2832,19 +2832,19 @@
         <v>562802</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>536886</v>
+        <v>536599</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>585288</v>
+        <v>587049</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.7938124924315668</v>
+        <v>0.7938124924315667</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.7572596050936198</v>
+        <v>0.7568535810150449</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.8255285609209591</v>
+        <v>0.8280114563533957</v>
       </c>
     </row>
     <row r="36">
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8294</v>
+        <v>8219</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.006546227545534508</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02350950357016653</v>
+        <v>0.02329468163236922</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>3</v>
@@ -2882,19 +2882,19 @@
         <v>2030</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>5527</v>
+        <v>5900</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.005698578854215821</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.001763881593348812</v>
+        <v>0.001777909604846996</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01551627131092127</v>
+        <v>0.01656418482680819</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5</v>
@@ -2903,19 +2903,19 @@
         <v>4339</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1306</v>
+        <v>1384</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>9973</v>
+        <v>10997</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.006120387329889031</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.001842535873371379</v>
+        <v>0.001951740722737812</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01406612143535829</v>
+        <v>0.01551145625423708</v>
       </c>
     </row>
     <row r="37">
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>3590</v>
+        <v>4042</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.001971757289599121</v>
@@ -2957,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.01007867122215045</v>
+        <v>0.01134832599099641</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1</v>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>3576</v>
+        <v>3180</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0009905678590704636</v>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.005043958246036984</v>
+        <v>0.004484962223805591</v>
       </c>
     </row>
     <row r="38">
@@ -3070,19 +3070,19 @@
         <v>141466</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>121228</v>
+        <v>120305</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>160612</v>
+        <v>162801</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.3922348257440734</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3361220586414885</v>
+        <v>0.3335615291897994</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4453199987527195</v>
+        <v>0.4513891591064504</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>112</v>
@@ -3091,19 +3091,19 @@
         <v>102426</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>87244</v>
+        <v>85880</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>121302</v>
+        <v>118764</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.250810677465818</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.2136359304821317</v>
+        <v>0.2102938819509087</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2970326938336851</v>
+        <v>0.2908172866923449</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>220</v>
@@ -3112,19 +3112,19 @@
         <v>243892</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>217925</v>
+        <v>219717</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>270772</v>
+        <v>273470</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.3171357173968045</v>
+        <v>0.3171357173968044</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.2833700718223062</v>
+        <v>0.2857001355025557</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.3520887306416128</v>
+        <v>0.3555970406784328</v>
       </c>
     </row>
     <row r="40">
@@ -3141,19 +3141,19 @@
         <v>218480</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>199200</v>
+        <v>197234</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>238681</v>
+        <v>240001</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.6057667477263048</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.5523104359277539</v>
+        <v>0.5468600997143606</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.6617761271880314</v>
+        <v>0.6654366507099783</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>402</v>
@@ -3162,19 +3162,19 @@
         <v>304036</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>284886</v>
+        <v>287447</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>318915</v>
+        <v>320852</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.7444946779048343</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.6976031637073421</v>
+        <v>0.7038737273881613</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.7809298305230417</v>
+        <v>0.7856725687426527</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>626</v>
@@ -3183,19 +3183,19 @@
         <v>522516</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>495270</v>
+        <v>493285</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>548419</v>
+        <v>547283</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.679434109249115</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.644005741928002</v>
+        <v>0.6414239679297851</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.7131165105890765</v>
+        <v>0.7116393427258075</v>
       </c>
     </row>
     <row r="41">
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>3708</v>
+        <v>3675</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.001998426529621735</v>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01028042027376585</v>
+        <v>0.01018840888804404</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>3</v>
@@ -3233,19 +3233,19 @@
         <v>1917</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>5114</v>
+        <v>5500</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.004694644629347763</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.001439099113072317</v>
+        <v>0.00143614666122304</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01252206862383138</v>
+        <v>0.01346678714428559</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>4</v>
@@ -3254,19 +3254,19 @@
         <v>2638</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>619</v>
+        <v>702</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>6072</v>
+        <v>6474</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.003430173354080605</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0008045985148773245</v>
+        <v>0.0009125148344908188</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.007895522441526654</v>
+        <v>0.008418018987500473</v>
       </c>
     </row>
     <row r="42">
@@ -3405,19 +3405,19 @@
         <v>473086</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>430789</v>
+        <v>429633</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>516678</v>
+        <v>517756</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.3016605519870275</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2746900329731713</v>
+        <v>0.2739528372413423</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3294564995543524</v>
+        <v>0.3301440943185893</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>414</v>
@@ -3426,19 +3426,19 @@
         <v>344416</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>313537</v>
+        <v>316834</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>378918</v>
+        <v>378737</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2029637161447447</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1847668005219414</v>
+        <v>0.1867097311430676</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2232954916611845</v>
+        <v>0.223188950169818</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>790</v>
@@ -3447,19 +3447,19 @@
         <v>817503</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>761887</v>
+        <v>770822</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>869075</v>
+        <v>876098</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2503676150689002</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2333346137727885</v>
+        <v>0.2360711144415325</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2661620829870436</v>
+        <v>0.2683129863578913</v>
       </c>
     </row>
     <row r="45">
@@ -3476,19 +3476,19 @@
         <v>1086701</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>1041527</v>
+        <v>1042516</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>1127463</v>
+        <v>1130463</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.6929280079172188</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.6641231956181886</v>
+        <v>0.664754027183208</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.7189198260720646</v>
+        <v>0.7208325216411856</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>1935</v>
@@ -3497,19 +3497,19 @@
         <v>1334324</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>1299939</v>
+        <v>1297244</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>1366595</v>
+        <v>1361627</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.7863137525295735</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.766050795376619</v>
+        <v>0.7644626687931352</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.8053306973377089</v>
+        <v>0.8024033857431473</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>3010</v>
@@ -3518,19 +3518,19 @@
         <v>2421025</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>2369259</v>
+        <v>2362672</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>2474316</v>
+        <v>2469219</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.7414607604272213</v>
+        <v>0.7414607604272211</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.7256070384156476</v>
+        <v>0.723589587856315</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.7577816928598563</v>
+        <v>0.756220689016021</v>
       </c>
     </row>
     <row r="46">
@@ -3547,19 +3547,19 @@
         <v>7740</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>3488</v>
+        <v>3449</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>15181</v>
+        <v>15287</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.00493538132071938</v>
+        <v>0.004935381320719381</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.002224330815906164</v>
+        <v>0.002199060312901889</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.00967977210980355</v>
+        <v>0.0097473612313668</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>24</v>
@@ -3568,19 +3568,19 @@
         <v>16183</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>9692</v>
+        <v>10349</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>24710</v>
+        <v>24072</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.009536365874526852</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.005711698475496064</v>
+        <v>0.006098428079389665</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01456169724755699</v>
+        <v>0.01418557506012528</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>32</v>
@@ -3589,19 +3589,19 @@
         <v>23923</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>16772</v>
+        <v>15835</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>33184</v>
+        <v>34812</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.007326521912671577</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.005136601307045654</v>
+        <v>0.004849525765567204</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01016282711266032</v>
+        <v>0.01066141334315433</v>
       </c>
     </row>
     <row r="47">
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3730</v>
+        <v>3779</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.0004760587750344625</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.002378676745525109</v>
+        <v>0.002409872754896289</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>3</v>
@@ -3639,19 +3639,19 @@
         <v>2013</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>5550</v>
+        <v>5410</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.001186165451155017</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.000328038622983793</v>
+        <v>0.0003309811454637559</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.003270776074898455</v>
+        <v>0.003188023056097002</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>4</v>
@@ -3663,16 +3663,16 @@
         <v>743</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>6905</v>
+        <v>6451</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.0008451025912070222</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.0002274175890950075</v>
+        <v>0.0002274470431892776</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.002114865679117274</v>
+        <v>0.001975663190756929</v>
       </c>
     </row>
     <row r="48">
